--- a/市場_2025改修/基本設計_2025/3_画面設計書(納付書).xlsx
+++ b/市場_2025改修/基本設計_2025/3_画面設計書(納付書).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA7EA9-784D-477D-BFD3-49A6925F69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C4F35-CA9E-4AEC-8B98-0B10F5A583A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="510" windowWidth="20190" windowHeight="13980" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
   <si>
     <t>作成者</t>
   </si>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>施設使用料・償還金等料金及び納付書作成システム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
       <t>バンゴウ</t>
@@ -490,13 +486,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>藤城</t>
-    <rPh sb="0" eb="2">
-      <t>フジシロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>納付書</t>
     <rPh sb="0" eb="3">
       <t>ノウフショ</t>
@@ -764,6 +753,76 @@
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>売上高割</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高割の帳票を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【売上高割】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内</t>
+    <rPh sb="0" eb="2">
+      <t>タケウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納付書、納付書（個別）</t>
+    <rPh sb="0" eb="3">
+      <t>ノウフショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ノウフショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高割を追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤城</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -872,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1204,12 +1263,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1304,12 +1374,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1325,12 +1389,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1340,20 +1425,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,29 +1449,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1397,6 +1479,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1412,29 +1506,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1450,6 +1538,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1635,43 +1732,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>157690</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181FAE5C-9B23-127E-4B41-DF0E9CEE3621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05E9BBA-D8B2-9510-3DC6-968522BD073E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="809625" y="838200"/>
-          <a:ext cx="3836670" cy="2009775"/>
+          <a:off x="762000" y="809625"/>
+          <a:ext cx="3777190" cy="1888595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1679,43 +1793,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>157690</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF6BD7C-5488-5613-EC07-DC4BD474B937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8B805D-E5F4-08D9-C3D6-E4AB4101F03E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="809625" y="3038475"/>
-          <a:ext cx="3851910" cy="2017395"/>
+          <a:off x="762000" y="2902480"/>
+          <a:ext cx="3777190" cy="1888595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1723,43 +1854,121 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>66639</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119724</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>157690</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0E8A68-9E94-8173-112B-EAEC5DB4AF44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB894B73-C9A7-DE69-E80A-ED007FAF3293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="809626" y="5200651"/>
-          <a:ext cx="3829013" cy="2005673"/>
+          <a:off x="762000" y="5074180"/>
+          <a:ext cx="3777190" cy="1888595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>140230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>157690</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C746C035-9027-93FD-0E44-F8C0BE6DE830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="7245880"/>
+          <a:ext cx="3777190" cy="1888595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2035,8 +2244,8 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -2068,50 +2277,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="C7" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="D8" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2131,20 +2340,20 @@
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
       <c r="F12" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
       <c r="F13" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="29"/>
@@ -2157,52 +2366,52 @@
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
       <c r="F14" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="40"/>
-      <c r="H15" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="H15" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
       <c r="N17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="6:16" ht="22.5" customHeight="1">
       <c r="N18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="6:16" ht="22.5" customHeight="1">
@@ -2215,7 +2424,7 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="6:16" ht="22.5" customHeight="1">
@@ -2225,12 +2434,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2239,6 +2442,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2253,7 +2462,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="F6" sqref="F6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2267,52 +2476,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="Q1" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="Q2" s="58">
+        <v>45748</v>
+      </c>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2338,427 +2551,441 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
+      <c r="B5" s="52">
+        <v>45748</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="B6" s="50">
+        <v>45835</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2769,14 +2996,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2793,62 +3068,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2865,7 +3092,7 @@
   <dimension ref="A1:BF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+      <selection activeCell="U2" sqref="U2:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2873,212 +3100,214 @@
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:58" ht="30" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="63" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="64" t="str">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="87" t="str">
         <f>表紙!C7</f>
-        <v>施設使用料・償還金等料金及び納付書作成システム</v>
-      </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="67" t="s">
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="68" t="s">
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="67" t="s">
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="63" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="67" t="s">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="72" t="str">
+        <f>表紙!H15</f>
+        <v>納付書</v>
+      </c>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="69">
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="76">
         <v>45748</v>
       </c>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="67" t="s">
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="70" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="72"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="69"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3089,934 +3318,932 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="75" t="s">
+      <c r="AO5" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="73"/>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="74"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="61"/>
+      <c r="BF5" s="62"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="73"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="74"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="62"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="73"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="74"/>
+      <c r="AO7" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="62"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="74"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="61"/>
+      <c r="AV8" s="61"/>
+      <c r="AW8" s="61"/>
+      <c r="AX8" s="61"/>
+      <c r="AY8" s="61"/>
+      <c r="AZ8" s="61"/>
+      <c r="BA8" s="61"/>
+      <c r="BB8" s="61"/>
+      <c r="BC8" s="61"/>
+      <c r="BD8" s="61"/>
+      <c r="BE8" s="61"/>
+      <c r="BF8" s="62"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="74"/>
+      <c r="AO9" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="62"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="74"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="62"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="74"/>
+      <c r="AO11" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="62"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="73"/>
-      <c r="BF12" s="74"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="61"/>
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="61"/>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="61"/>
+      <c r="BF12" s="62"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="74"/>
+      <c r="AO13" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="62"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="73"/>
-      <c r="BC14" s="73"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="73"/>
-      <c r="BF14" s="74"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="61"/>
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="62"/>
     </row>
     <row r="15" spans="1:58" ht="11.25" customHeight="1">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="73"/>
-      <c r="AZ15" s="73"/>
-      <c r="BA15" s="73"/>
-      <c r="BB15" s="73"/>
-      <c r="BC15" s="73"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="73"/>
-      <c r="BF15" s="74"/>
+      <c r="AO15" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="62"/>
     </row>
     <row r="16" spans="1:58" ht="13.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="74"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="62"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="74"/>
+      <c r="AO17" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV17" s="61"/>
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="61"/>
+      <c r="BD17" s="61"/>
+      <c r="BE17" s="61"/>
+      <c r="BF17" s="62"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="74"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="62"/>
     </row>
     <row r="19" spans="1:58">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="74"/>
+      <c r="AO19" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="62"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="75"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="73"/>
-      <c r="BE20" s="73"/>
-      <c r="BF20" s="74"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="61"/>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="61"/>
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="62"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="73"/>
-      <c r="BA21" s="73"/>
-      <c r="BB21" s="73"/>
-      <c r="BC21" s="73"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="73"/>
-      <c r="BF21" s="74"/>
+      <c r="AO21" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="62"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="75"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
-      <c r="AY22" s="73"/>
-      <c r="AZ22" s="73"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="73"/>
-      <c r="BC22" s="73"/>
-      <c r="BD22" s="73"/>
-      <c r="BE22" s="73"/>
-      <c r="BF22" s="74"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="61"/>
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="61"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="61"/>
+      <c r="BC22" s="61"/>
+      <c r="BD22" s="61"/>
+      <c r="BE22" s="61"/>
+      <c r="BF22" s="62"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
-      <c r="AY23" s="73"/>
-      <c r="AZ23" s="73"/>
-      <c r="BA23" s="73"/>
-      <c r="BB23" s="73"/>
-      <c r="BC23" s="73"/>
-      <c r="BD23" s="73"/>
-      <c r="BE23" s="73"/>
-      <c r="BF23" s="74"/>
+      <c r="AO23" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV23" s="61"/>
+      <c r="AW23" s="61"/>
+      <c r="AX23" s="61"/>
+      <c r="AY23" s="61"/>
+      <c r="AZ23" s="61"/>
+      <c r="BA23" s="61"/>
+      <c r="BB23" s="61"/>
+      <c r="BC23" s="61"/>
+      <c r="BD23" s="61"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="62"/>
     </row>
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="75"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
-      <c r="BA24" s="73"/>
-      <c r="BB24" s="73"/>
-      <c r="BC24" s="73"/>
-      <c r="BD24" s="73"/>
-      <c r="BE24" s="73"/>
-      <c r="BF24" s="74"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="61"/>
+      <c r="AV24" s="61"/>
+      <c r="AW24" s="61"/>
+      <c r="AX24" s="61"/>
+      <c r="AY24" s="61"/>
+      <c r="AZ24" s="61"/>
+      <c r="BA24" s="61"/>
+      <c r="BB24" s="61"/>
+      <c r="BC24" s="61"/>
+      <c r="BD24" s="61"/>
+      <c r="BE24" s="61"/>
+      <c r="BF24" s="62"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="51"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="73"/>
-      <c r="AZ25" s="73"/>
-      <c r="BA25" s="73"/>
-      <c r="BB25" s="73"/>
-      <c r="BC25" s="73"/>
-      <c r="BD25" s="73"/>
-      <c r="BE25" s="73"/>
-      <c r="BF25" s="74"/>
+      <c r="AO25" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV25" s="61"/>
+      <c r="AW25" s="61"/>
+      <c r="AX25" s="61"/>
+      <c r="AY25" s="61"/>
+      <c r="AZ25" s="61"/>
+      <c r="BA25" s="61"/>
+      <c r="BB25" s="61"/>
+      <c r="BC25" s="61"/>
+      <c r="BD25" s="61"/>
+      <c r="BE25" s="61"/>
+      <c r="BF25" s="62"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="75"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="73"/>
-      <c r="AZ26" s="73"/>
-      <c r="BA26" s="73"/>
-      <c r="BB26" s="73"/>
-      <c r="BC26" s="73"/>
-      <c r="BD26" s="73"/>
-      <c r="BE26" s="73"/>
-      <c r="BF26" s="74"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="61"/>
+      <c r="AV26" s="61"/>
+      <c r="AW26" s="61"/>
+      <c r="AX26" s="61"/>
+      <c r="AY26" s="61"/>
+      <c r="AZ26" s="61"/>
+      <c r="BA26" s="61"/>
+      <c r="BB26" s="61"/>
+      <c r="BC26" s="61"/>
+      <c r="BD26" s="61"/>
+      <c r="BE26" s="61"/>
+      <c r="BF26" s="62"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="73"/>
-      <c r="AZ27" s="73"/>
-      <c r="BA27" s="73"/>
-      <c r="BB27" s="73"/>
-      <c r="BC27" s="73"/>
-      <c r="BD27" s="73"/>
-      <c r="BE27" s="73"/>
-      <c r="BF27" s="74"/>
+      <c r="AO27" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV27" s="61"/>
+      <c r="AW27" s="61"/>
+      <c r="AX27" s="61"/>
+      <c r="AY27" s="61"/>
+      <c r="AZ27" s="61"/>
+      <c r="BA27" s="61"/>
+      <c r="BB27" s="61"/>
+      <c r="BC27" s="61"/>
+      <c r="BD27" s="61"/>
+      <c r="BE27" s="61"/>
+      <c r="BF27" s="62"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="75"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
-      <c r="BA28" s="73"/>
-      <c r="BB28" s="73"/>
-      <c r="BC28" s="73"/>
-      <c r="BD28" s="73"/>
-      <c r="BE28" s="73"/>
-      <c r="BF28" s="74"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="61"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="61"/>
+      <c r="AX28" s="61"/>
+      <c r="AY28" s="61"/>
+      <c r="AZ28" s="61"/>
+      <c r="BA28" s="61"/>
+      <c r="BB28" s="61"/>
+      <c r="BC28" s="61"/>
+      <c r="BD28" s="61"/>
+      <c r="BE28" s="61"/>
+      <c r="BF28" s="62"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-      <c r="BB29" s="73"/>
-      <c r="BC29" s="73"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="74"/>
+      <c r="AO29" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV29" s="61"/>
+      <c r="AW29" s="61"/>
+      <c r="AX29" s="61"/>
+      <c r="AY29" s="61"/>
+      <c r="AZ29" s="61"/>
+      <c r="BA29" s="61"/>
+      <c r="BB29" s="61"/>
+      <c r="BC29" s="61"/>
+      <c r="BD29" s="61"/>
+      <c r="BE29" s="61"/>
+      <c r="BF29" s="62"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="75"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="73"/>
-      <c r="AX30" s="73"/>
-      <c r="AY30" s="73"/>
-      <c r="AZ30" s="73"/>
-      <c r="BA30" s="73"/>
-      <c r="BB30" s="73"/>
-      <c r="BC30" s="73"/>
-      <c r="BD30" s="73"/>
-      <c r="BE30" s="73"/>
-      <c r="BF30" s="74"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="61"/>
+      <c r="AV30" s="61"/>
+      <c r="AW30" s="61"/>
+      <c r="AX30" s="61"/>
+      <c r="AY30" s="61"/>
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
+      <c r="BB30" s="61"/>
+      <c r="BC30" s="61"/>
+      <c r="BD30" s="61"/>
+      <c r="BE30" s="61"/>
+      <c r="BF30" s="62"/>
     </row>
     <row r="31" spans="1:58" ht="11.25" customHeight="1">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="73"/>
-      <c r="BA31" s="73"/>
-      <c r="BB31" s="73"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="73"/>
-      <c r="BE31" s="73"/>
-      <c r="BF31" s="74"/>
+      <c r="AO31" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV31" s="61"/>
+      <c r="AW31" s="61"/>
+      <c r="AX31" s="61"/>
+      <c r="AY31" s="61"/>
+      <c r="AZ31" s="61"/>
+      <c r="BA31" s="61"/>
+      <c r="BB31" s="61"/>
+      <c r="BC31" s="61"/>
+      <c r="BD31" s="61"/>
+      <c r="BE31" s="61"/>
+      <c r="BF31" s="62"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="75"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="51"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="73"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="73"/>
-      <c r="BA32" s="73"/>
-      <c r="BB32" s="73"/>
-      <c r="BC32" s="73"/>
-      <c r="BD32" s="73"/>
-      <c r="BE32" s="73"/>
-      <c r="BF32" s="74"/>
+      <c r="AO32" s="60"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="61"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="61"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="62"/>
     </row>
     <row r="33" spans="1:58" ht="11.25" customHeight="1">
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP33" s="51"/>
-      <c r="AQ33" s="51"/>
-      <c r="AR33" s="51"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="51"/>
-      <c r="AU33" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="74"/>
+      <c r="AO33" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="61"/>
+      <c r="AX33" s="61"/>
+      <c r="AY33" s="61"/>
+      <c r="AZ33" s="61"/>
+      <c r="BA33" s="61"/>
+      <c r="BB33" s="61"/>
+      <c r="BC33" s="61"/>
+      <c r="BD33" s="61"/>
+      <c r="BE33" s="61"/>
+      <c r="BF33" s="62"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="75"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="73"/>
-      <c r="BA34" s="73"/>
-      <c r="BB34" s="73"/>
-      <c r="BC34" s="73"/>
-      <c r="BD34" s="73"/>
-      <c r="BE34" s="73"/>
-      <c r="BF34" s="74"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="62"/>
     </row>
     <row r="35" spans="1:58" ht="11.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
-      <c r="BA35" s="73"/>
-      <c r="BB35" s="73"/>
-      <c r="BC35" s="73"/>
-      <c r="BD35" s="73"/>
-      <c r="BE35" s="73"/>
-      <c r="BF35" s="74"/>
+      <c r="AO35" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="61"/>
+      <c r="AZ35" s="61"/>
+      <c r="BA35" s="61"/>
+      <c r="BB35" s="61"/>
+      <c r="BC35" s="61"/>
+      <c r="BD35" s="61"/>
+      <c r="BE35" s="61"/>
+      <c r="BF35" s="62"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="75"/>
-      <c r="AP36" s="51"/>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51"/>
-      <c r="AS36" s="51"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="73"/>
-      <c r="AV36" s="73"/>
-      <c r="AW36" s="73"/>
-      <c r="AX36" s="73"/>
-      <c r="AY36" s="73"/>
-      <c r="AZ36" s="73"/>
-      <c r="BA36" s="73"/>
-      <c r="BB36" s="73"/>
-      <c r="BC36" s="73"/>
-      <c r="BD36" s="73"/>
-      <c r="BE36" s="73"/>
-      <c r="BF36" s="74"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="61"/>
+      <c r="AV36" s="61"/>
+      <c r="AW36" s="61"/>
+      <c r="AX36" s="61"/>
+      <c r="AY36" s="61"/>
+      <c r="AZ36" s="61"/>
+      <c r="BA36" s="61"/>
+      <c r="BB36" s="61"/>
+      <c r="BC36" s="61"/>
+      <c r="BD36" s="61"/>
+      <c r="BE36" s="61"/>
+      <c r="BF36" s="62"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF37" s="3"/>
+      <c r="AO37" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="65"/>
+      <c r="BA37" s="65"/>
+      <c r="BB37" s="65"/>
+      <c r="BC37" s="65"/>
+      <c r="BD37" s="65"/>
+      <c r="BE37" s="65"/>
+      <c r="BF37" s="66"/>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
-      <c r="AS38" s="51"/>
-      <c r="AT38" s="51"/>
-      <c r="AU38" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV38" s="73"/>
-      <c r="AW38" s="73"/>
-      <c r="AX38" s="73"/>
-      <c r="AY38" s="73"/>
-      <c r="AZ38" s="73"/>
-      <c r="BA38" s="73"/>
-      <c r="BB38" s="73"/>
-      <c r="BC38" s="73"/>
-      <c r="BD38" s="73"/>
-      <c r="BE38" s="73"/>
-      <c r="BF38" s="74"/>
+      <c r="AO38" s="63"/>
+      <c r="AP38" s="64"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="64"/>
+      <c r="AS38" s="64"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="65"/>
+      <c r="AW38" s="65"/>
+      <c r="AX38" s="65"/>
+      <c r="AY38" s="65"/>
+      <c r="AZ38" s="65"/>
+      <c r="BA38" s="65"/>
+      <c r="BB38" s="65"/>
+      <c r="BC38" s="65"/>
+      <c r="BD38" s="65"/>
+      <c r="BE38" s="65"/>
+      <c r="BF38" s="66"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="75"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="51"/>
-      <c r="AS39" s="51"/>
-      <c r="AT39" s="51"/>
-      <c r="AU39" s="73"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="73"/>
-      <c r="AY39" s="73"/>
-      <c r="AZ39" s="73"/>
-      <c r="BA39" s="73"/>
-      <c r="BB39" s="73"/>
-      <c r="BC39" s="73"/>
-      <c r="BD39" s="73"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="74"/>
+      <c r="AO39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF39" s="38"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
       <c r="AN40" s="3"/>
-      <c r="AO40" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP40" s="51"/>
-      <c r="AQ40" s="51"/>
-      <c r="AR40" s="51"/>
-      <c r="AS40" s="51"/>
-      <c r="AT40" s="51"/>
-      <c r="AU40" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV40" s="73"/>
-      <c r="AW40" s="73"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="73"/>
-      <c r="BA40" s="73"/>
-      <c r="BB40" s="73"/>
-      <c r="BC40" s="73"/>
-      <c r="BD40" s="73"/>
-      <c r="BE40" s="73"/>
-      <c r="BF40" s="74"/>
+      <c r="AO40" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="61"/>
+      <c r="BC40" s="61"/>
+      <c r="BD40" s="61"/>
+      <c r="BE40" s="61"/>
+      <c r="BF40" s="62"/>
     </row>
     <row r="41" spans="1:58">
       <c r="A41" s="2"/>
       <c r="AN41" s="3"/>
-      <c r="AO41" s="75"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
-      <c r="AT41" s="51"/>
-      <c r="AU41" s="73"/>
-      <c r="AV41" s="73"/>
-      <c r="AW41" s="73"/>
-      <c r="AX41" s="73"/>
-      <c r="AY41" s="73"/>
-      <c r="AZ41" s="73"/>
-      <c r="BA41" s="73"/>
-      <c r="BB41" s="73"/>
-      <c r="BC41" s="73"/>
-      <c r="BD41" s="73"/>
-      <c r="BE41" s="73"/>
-      <c r="BF41" s="74"/>
+      <c r="AO41" s="60"/>
+      <c r="AP41" s="49"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="49"/>
+      <c r="AS41" s="49"/>
+      <c r="AT41" s="49"/>
+      <c r="AU41" s="61"/>
+      <c r="AV41" s="61"/>
+      <c r="AW41" s="61"/>
+      <c r="AX41" s="61"/>
+      <c r="AY41" s="61"/>
+      <c r="AZ41" s="61"/>
+      <c r="BA41" s="61"/>
+      <c r="BB41" s="61"/>
+      <c r="BC41" s="61"/>
+      <c r="BD41" s="61"/>
+      <c r="BE41" s="61"/>
+      <c r="BF41" s="62"/>
     </row>
     <row r="42" spans="1:58">
       <c r="A42" s="2"/>
       <c r="AN42" s="3"/>
-      <c r="AO42" s="2"/>
-      <c r="BF42" s="3"/>
+      <c r="AO42" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP42" s="49"/>
+      <c r="AQ42" s="49"/>
+      <c r="AR42" s="49"/>
+      <c r="AS42" s="49"/>
+      <c r="AT42" s="49"/>
+      <c r="AU42" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV42" s="61"/>
+      <c r="AW42" s="61"/>
+      <c r="AX42" s="61"/>
+      <c r="AY42" s="61"/>
+      <c r="AZ42" s="61"/>
+      <c r="BA42" s="61"/>
+      <c r="BB42" s="61"/>
+      <c r="BC42" s="61"/>
+      <c r="BD42" s="61"/>
+      <c r="BE42" s="61"/>
+      <c r="BF42" s="62"/>
     </row>
     <row r="43" spans="1:58">
       <c r="A43" s="2"/>
       <c r="AN43" s="3"/>
-      <c r="AO43" s="2"/>
-      <c r="BF43" s="3"/>
+      <c r="AO43" s="60"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="49"/>
+      <c r="AT43" s="49"/>
+      <c r="AU43" s="61"/>
+      <c r="AV43" s="61"/>
+      <c r="AW43" s="61"/>
+      <c r="AX43" s="61"/>
+      <c r="AY43" s="61"/>
+      <c r="AZ43" s="61"/>
+      <c r="BA43" s="61"/>
+      <c r="BB43" s="61"/>
+      <c r="BC43" s="61"/>
+      <c r="BD43" s="61"/>
+      <c r="BE43" s="61"/>
+      <c r="BF43" s="62"/>
     </row>
     <row r="44" spans="1:58">
       <c r="A44" s="2"/>
       <c r="AN44" s="3"/>
-      <c r="AO44" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP44" s="60"/>
-      <c r="AQ44" s="60"/>
-      <c r="AR44" s="60"/>
-      <c r="AS44" s="60"/>
-      <c r="AT44" s="60"/>
-      <c r="AU44" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV44" s="61"/>
-      <c r="AW44" s="61"/>
-      <c r="AX44" s="61"/>
-      <c r="AY44" s="61"/>
-      <c r="AZ44" s="61"/>
-      <c r="BA44" s="61"/>
-      <c r="BB44" s="61"/>
-      <c r="BC44" s="61"/>
-      <c r="BD44" s="61"/>
-      <c r="BE44" s="61"/>
-      <c r="BF44" s="62"/>
+      <c r="BF44" s="37"/>
     </row>
     <row r="45" spans="1:58">
       <c r="A45" s="2"/>
       <c r="AN45" s="3"/>
-      <c r="AO45" s="59"/>
-      <c r="AP45" s="60"/>
-      <c r="AQ45" s="60"/>
-      <c r="AR45" s="60"/>
-      <c r="AS45" s="60"/>
-      <c r="AT45" s="60"/>
-      <c r="AU45" s="61"/>
-      <c r="AV45" s="61"/>
-      <c r="AW45" s="61"/>
-      <c r="AX45" s="61"/>
-      <c r="AY45" s="61"/>
-      <c r="AZ45" s="61"/>
-      <c r="BA45" s="61"/>
-      <c r="BB45" s="61"/>
-      <c r="BC45" s="61"/>
-      <c r="BD45" s="61"/>
-      <c r="BE45" s="61"/>
-      <c r="BF45" s="62"/>
+      <c r="BF45" s="3"/>
     </row>
     <row r="46" spans="1:58">
       <c r="A46" s="2"/>
@@ -4087,43 +4314,50 @@
       <c r="BF50" s="3"/>
     </row>
     <row r="51" spans="1:58">
-      <c r="AO51" s="38"/>
-      <c r="AP51" s="38"/>
-      <c r="AQ51" s="38"/>
-      <c r="AR51" s="38"/>
-      <c r="AS51" s="38"/>
-      <c r="AT51" s="38"/>
-      <c r="AU51" s="38"/>
-      <c r="AV51" s="38"/>
-      <c r="AW51" s="38"/>
-      <c r="AX51" s="38"/>
-      <c r="AY51" s="38"/>
-      <c r="AZ51" s="38"/>
-      <c r="BA51" s="38"/>
-      <c r="BB51" s="38"/>
-      <c r="BC51" s="38"/>
-      <c r="BD51" s="38"/>
-      <c r="BE51" s="38"/>
-      <c r="BF51" s="38"/>
+      <c r="AO51" s="36"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="36"/>
+      <c r="AR51" s="36"/>
+      <c r="AS51" s="36"/>
+      <c r="AT51" s="36"/>
+      <c r="AU51" s="36"/>
+      <c r="AV51" s="36"/>
+      <c r="AW51" s="36"/>
+      <c r="AX51" s="36"/>
+      <c r="AY51" s="36"/>
+      <c r="AZ51" s="36"/>
+      <c r="BA51" s="36"/>
+      <c r="BB51" s="36"/>
+      <c r="BC51" s="36"/>
+      <c r="BD51" s="36"/>
+      <c r="BE51" s="36"/>
+      <c r="BF51" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AO38:AT39"/>
-    <mergeCell ref="AU38:BF39"/>
-    <mergeCell ref="AU29:BF30"/>
-    <mergeCell ref="AU31:BF32"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AU23:BF24"/>
-    <mergeCell ref="AO25:AT26"/>
-    <mergeCell ref="AU25:BF26"/>
-    <mergeCell ref="AO31:AT32"/>
-    <mergeCell ref="AU27:BF28"/>
-    <mergeCell ref="AO33:AT34"/>
-    <mergeCell ref="AU33:BF34"/>
-    <mergeCell ref="AO40:AT41"/>
-    <mergeCell ref="AU40:BF41"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO42:AT43"/>
+    <mergeCell ref="AU42:BF43"/>
     <mergeCell ref="AU11:BF12"/>
     <mergeCell ref="AU13:BF14"/>
     <mergeCell ref="AU15:BF16"/>
@@ -4138,29 +4372,22 @@
     <mergeCell ref="AO13:AT14"/>
     <mergeCell ref="AO19:AT20"/>
     <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO44:AT45"/>
-    <mergeCell ref="AU44:BF45"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO40:AT41"/>
+    <mergeCell ref="AU40:BF41"/>
+    <mergeCell ref="AU29:BF30"/>
+    <mergeCell ref="AU31:BF32"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="AO25:AT26"/>
+    <mergeCell ref="AU25:BF26"/>
+    <mergeCell ref="AO31:AT32"/>
+    <mergeCell ref="AU27:BF28"/>
+    <mergeCell ref="AO33:AT34"/>
+    <mergeCell ref="AU33:BF34"/>
+    <mergeCell ref="AO37:AT38"/>
+    <mergeCell ref="AU37:BF38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4174,10 +4401,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF50"/>
+  <dimension ref="A1:BF63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:BF3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -4185,212 +4412,217 @@
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:58" ht="30" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="63" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="64" t="str">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="87" t="str">
         <f>表紙!C7</f>
-        <v>施設使用料・償還金等料金及び納付書作成システム</v>
-      </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="67" t="s">
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="68" t="s">
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="67" t="s">
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="63" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="67" t="s">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="69">
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="76">
         <v>44752</v>
       </c>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="67" t="s">
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="76">
+        <v>45835</v>
+      </c>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="70" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="72"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="69"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -4400,344 +4632,349 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="75" t="s">
+      <c r="AO5" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="73"/>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="74"/>
-    </row>
-    <row r="6" spans="1:58">
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="61"/>
+      <c r="BF5" s="62"/>
+    </row>
+    <row r="6" spans="1:58" ht="13.5">
       <c r="A6" s="2"/>
+      <c r="AA6"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="73"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="74"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="62"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="73"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="74"/>
+      <c r="AO7" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="62"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="74"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="61"/>
+      <c r="AV8" s="61"/>
+      <c r="AW8" s="61"/>
+      <c r="AX8" s="61"/>
+      <c r="AY8" s="61"/>
+      <c r="AZ8" s="61"/>
+      <c r="BA8" s="61"/>
+      <c r="BB8" s="61"/>
+      <c r="BC8" s="61"/>
+      <c r="BD8" s="61"/>
+      <c r="BE8" s="61"/>
+      <c r="BF8" s="62"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV9" s="79"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="79"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="79"/>
-      <c r="BB9" s="79"/>
-      <c r="BC9" s="79"/>
-      <c r="BD9" s="79"/>
-      <c r="BE9" s="79"/>
-      <c r="BF9" s="80"/>
+      <c r="AO9" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85"/>
+      <c r="BF9" s="86"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="80"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="85"/>
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="86"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AX11" s="79"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="79"/>
-      <c r="BA11" s="79"/>
-      <c r="BB11" s="79"/>
-      <c r="BC11" s="79"/>
-      <c r="BD11" s="79"/>
-      <c r="BE11" s="79"/>
-      <c r="BF11" s="80"/>
+      <c r="AO11" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="85"/>
+      <c r="BF11" s="86"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="79"/>
-      <c r="AY12" s="79"/>
-      <c r="AZ12" s="79"/>
-      <c r="BA12" s="79"/>
-      <c r="BB12" s="79"/>
-      <c r="BC12" s="79"/>
-      <c r="BD12" s="79"/>
-      <c r="BE12" s="79"/>
-      <c r="BF12" s="80"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="85"/>
+      <c r="AW12" s="85"/>
+      <c r="AX12" s="85"/>
+      <c r="AY12" s="85"/>
+      <c r="AZ12" s="85"/>
+      <c r="BA12" s="85"/>
+      <c r="BB12" s="85"/>
+      <c r="BC12" s="85"/>
+      <c r="BD12" s="85"/>
+      <c r="BE12" s="85"/>
+      <c r="BF12" s="86"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV13" s="79"/>
-      <c r="AW13" s="79"/>
-      <c r="AX13" s="79"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="79"/>
-      <c r="BA13" s="79"/>
-      <c r="BB13" s="79"/>
-      <c r="BC13" s="79"/>
-      <c r="BD13" s="79"/>
-      <c r="BE13" s="79"/>
-      <c r="BF13" s="80"/>
+      <c r="AO13" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="85"/>
+      <c r="BB13" s="85"/>
+      <c r="BC13" s="85"/>
+      <c r="BD13" s="85"/>
+      <c r="BE13" s="85"/>
+      <c r="BF13" s="86"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="79"/>
-      <c r="AW14" s="79"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="79"/>
-      <c r="BA14" s="79"/>
-      <c r="BB14" s="79"/>
-      <c r="BC14" s="79"/>
-      <c r="BD14" s="79"/>
-      <c r="BE14" s="79"/>
-      <c r="BF14" s="80"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="85"/>
+      <c r="BC14" s="85"/>
+      <c r="BD14" s="85"/>
+      <c r="BE14" s="85"/>
+      <c r="BF14" s="86"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
-      <c r="BB15" s="34"/>
-      <c r="BC15" s="34"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="35"/>
+      <c r="AO15" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV15" s="80"/>
+      <c r="AW15" s="80"/>
+      <c r="AX15" s="80"/>
+      <c r="AY15" s="80"/>
+      <c r="AZ15" s="80"/>
+      <c r="BA15" s="80"/>
+      <c r="BB15" s="80"/>
+      <c r="BC15" s="80"/>
+      <c r="BD15" s="80"/>
+      <c r="BE15" s="80"/>
+      <c r="BF15" s="81"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="34"/>
-      <c r="BC16" s="34"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="35"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="80"/>
+      <c r="BA16" s="80"/>
+      <c r="BB16" s="80"/>
+      <c r="BC16" s="80"/>
+      <c r="BD16" s="80"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="81"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="34"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="34"/>
-      <c r="AZ17" s="34"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="34"/>
-      <c r="BC17" s="34"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="35"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="33"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="35"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
+      <c r="BA18" s="32"/>
+      <c r="BB18" s="32"/>
+      <c r="BC18" s="32"/>
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="32"/>
+      <c r="BF18" s="33"/>
     </row>
     <row r="19" spans="1:58">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AN19" s="3"/>
       <c r="AO19" s="2"/>
       <c r="BF19" s="3"/>
     </row>
-    <row r="20" spans="1:58">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="20" spans="1:58" ht="13.5">
+      <c r="Z20"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="2"/>
       <c r="BF20" s="3"/>
@@ -4821,15 +5058,15 @@
       <c r="BF33" s="3"/>
     </row>
     <row r="34" spans="1:58">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AN34" s="3"/>
       <c r="AO34" s="2"/>
       <c r="BF34" s="3"/>
     </row>
-    <row r="35" spans="1:58">
-      <c r="A35" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="35" spans="1:58" ht="13.5">
+      <c r="AA35"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="2"/>
       <c r="BF35" s="3"/>
@@ -4913,78 +5150,155 @@
       <c r="BF48" s="3"/>
     </row>
     <row r="49" spans="1:58">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="AN49" s="3"/>
       <c r="AO49" s="2"/>
       <c r="BF49" s="3"/>
     </row>
     <row r="50" spans="1:58">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="4"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="5"/>
-      <c r="AT50" s="5"/>
-      <c r="AU50" s="5"/>
-      <c r="AV50" s="5"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="5"/>
-      <c r="AZ50" s="5"/>
-      <c r="BA50" s="5"/>
-      <c r="BB50" s="5"/>
-      <c r="BC50" s="5"/>
-      <c r="BD50" s="5"/>
-      <c r="BE50" s="5"/>
-      <c r="BF50" s="6"/>
+      <c r="A50" s="2"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="2"/>
+      <c r="BF50" s="3"/>
+    </row>
+    <row r="51" spans="1:58" ht="13.5">
+      <c r="AB51"/>
+      <c r="AN51" s="3"/>
+      <c r="BF51" s="3"/>
+    </row>
+    <row r="52" spans="1:58">
+      <c r="A52" s="2"/>
+      <c r="AN52" s="3"/>
+      <c r="BF52" s="3"/>
+    </row>
+    <row r="53" spans="1:58">
+      <c r="A53" s="2"/>
+      <c r="AN53" s="3"/>
+      <c r="BF53" s="3"/>
+    </row>
+    <row r="54" spans="1:58">
+      <c r="A54" s="2"/>
+      <c r="AN54" s="3"/>
+      <c r="BF54" s="3"/>
+    </row>
+    <row r="55" spans="1:58">
+      <c r="A55" s="2"/>
+      <c r="AN55" s="3"/>
+      <c r="BF55" s="3"/>
+    </row>
+    <row r="56" spans="1:58">
+      <c r="A56" s="2"/>
+      <c r="AN56" s="3"/>
+      <c r="BF56" s="3"/>
+    </row>
+    <row r="57" spans="1:58">
+      <c r="A57" s="2"/>
+      <c r="AN57" s="3"/>
+      <c r="BF57" s="3"/>
+    </row>
+    <row r="58" spans="1:58">
+      <c r="A58" s="2"/>
+      <c r="AN58" s="3"/>
+      <c r="BF58" s="3"/>
+    </row>
+    <row r="59" spans="1:58">
+      <c r="A59" s="2"/>
+      <c r="AN59" s="3"/>
+      <c r="BF59" s="3"/>
+    </row>
+    <row r="60" spans="1:58">
+      <c r="A60" s="2"/>
+      <c r="AN60" s="3"/>
+      <c r="BF60" s="3"/>
+    </row>
+    <row r="61" spans="1:58">
+      <c r="A61" s="2"/>
+      <c r="AN61" s="3"/>
+      <c r="BF61" s="3"/>
+    </row>
+    <row r="62" spans="1:58">
+      <c r="A62" s="2"/>
+      <c r="AN62" s="3"/>
+      <c r="BF62" s="3"/>
+    </row>
+    <row r="63" spans="1:58">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
+      <c r="AR63" s="5"/>
+      <c r="AS63" s="5"/>
+      <c r="AT63" s="5"/>
+      <c r="AU63" s="5"/>
+      <c r="AV63" s="5"/>
+      <c r="AW63" s="5"/>
+      <c r="AX63" s="5"/>
+      <c r="AY63" s="5"/>
+      <c r="AZ63" s="5"/>
+      <c r="BA63" s="5"/>
+      <c r="BB63" s="5"/>
+      <c r="BC63" s="5"/>
+      <c r="BD63" s="5"/>
+      <c r="BE63" s="5"/>
+      <c r="BF63" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+  <mergeCells count="27">
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -4993,22 +5307,15 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>